--- a/training/output/CNN/W/W1_W2.xlsx
+++ b/training/output/CNN/W/W1_W2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4266666666666666</v>
+        <v>0.1241666666666666</v>
       </c>
       <c r="B2" t="n">
-        <v>3.146898641586304</v>
+        <v>3.176220774650574</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7516666666666667</v>
+        <v>0.2627083333333333</v>
       </c>
       <c r="B3" t="n">
-        <v>2.515337438583374</v>
+        <v>2.931061029434204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7983333333333333</v>
+        <v>0.2970833333333333</v>
       </c>
       <c r="B4" t="n">
-        <v>2.328183584213257</v>
+        <v>2.875312745571136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8483333333333333</v>
+        <v>0.3045833333333333</v>
       </c>
       <c r="B5" t="n">
-        <v>2.101787691116333</v>
+        <v>2.81861287355423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8683333333333333</v>
+        <v>0.3072916666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>1.945070457458496</v>
+        <v>2.767406225204468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8883333333333333</v>
+        <v>0.291875</v>
       </c>
       <c r="B7" t="n">
-        <v>1.814144377708435</v>
+        <v>2.728615581989288</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8958333333333333</v>
+        <v>0.3077083333333333</v>
       </c>
       <c r="B8" t="n">
-        <v>1.804779191017151</v>
+        <v>2.72349739074707</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9375</v>
+        <v>0.320625</v>
       </c>
       <c r="B9" t="n">
-        <v>1.773768138885498</v>
+        <v>2.68923431634903</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.3302083333333333</v>
       </c>
       <c r="B10" t="n">
-        <v>1.7275874376297</v>
+        <v>2.643085241317749</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9533333333333333</v>
+        <v>0.3027083333333333</v>
       </c>
       <c r="B11" t="n">
-        <v>1.670277986526489</v>
+        <v>2.663890838623047</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9375</v>
+        <v>0.3075</v>
       </c>
       <c r="B12" t="n">
-        <v>1.7140420627594</v>
+        <v>2.616556942462921</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9408333333333333</v>
+        <v>0.35875</v>
       </c>
       <c r="B13" t="n">
-        <v>1.638989038467407</v>
+        <v>2.574466645717621</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9725</v>
+        <v>0.37375</v>
       </c>
       <c r="B14" t="n">
-        <v>1.639227423667908</v>
+        <v>2.606780290603638</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.358125</v>
       </c>
       <c r="B15" t="n">
-        <v>1.584567122459412</v>
+        <v>2.578371465206146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.96</v>
+        <v>0.370625</v>
       </c>
       <c r="B16" t="n">
-        <v>1.608292307853699</v>
+        <v>2.542204260826111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9375</v>
+        <v>0.3558333333333333</v>
       </c>
       <c r="B17" t="n">
-        <v>1.637574353218079</v>
+        <v>2.498021006584167</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.36875</v>
       </c>
       <c r="B18" t="n">
-        <v>1.606186861991882</v>
+        <v>2.472135066986084</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.975</v>
+        <v>0.4416666666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>1.588174772262573</v>
+        <v>2.456937074661255</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.97</v>
+        <v>0.37875</v>
       </c>
       <c r="B20" t="n">
-        <v>1.558297233581543</v>
+        <v>2.451608300209045</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.98</v>
+        <v>0.4375</v>
       </c>
       <c r="B21" t="n">
-        <v>1.544606266021729</v>
+        <v>2.400130808353424</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.985</v>
+        <v>0.4670833333333334</v>
       </c>
       <c r="B22" t="n">
-        <v>1.545697522163391</v>
+        <v>2.389474332332611</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.98</v>
+        <v>0.4172916666666667</v>
       </c>
       <c r="B23" t="n">
-        <v>1.513665328025818</v>
+        <v>2.390090703964233</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9875</v>
+        <v>0.4570833333333333</v>
       </c>
       <c r="B24" t="n">
-        <v>1.492740077972412</v>
+        <v>2.330179154872894</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.99</v>
+        <v>0.4522916666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>1.532956547737122</v>
+        <v>2.330374121665955</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.99</v>
+        <v>0.4695833333333333</v>
       </c>
       <c r="B26" t="n">
-        <v>1.482534427642822</v>
+        <v>2.289735794067383</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9775</v>
+        <v>0.4235416666666666</v>
       </c>
       <c r="B27" t="n">
-        <v>1.50424277305603</v>
+        <v>2.289857089519501</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.975</v>
+        <v>0.465</v>
       </c>
       <c r="B28" t="n">
-        <v>1.476335377693176</v>
+        <v>2.264066636562347</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9825</v>
+        <v>0.506875</v>
       </c>
       <c r="B29" t="n">
-        <v>1.479861345291138</v>
+        <v>2.196761071681976</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.985</v>
+        <v>0.4777083333333334</v>
       </c>
       <c r="B30" t="n">
-        <v>1.478517532348633</v>
+        <v>2.196283102035522</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.985</v>
+        <v>0.4772916666666667</v>
       </c>
       <c r="B31" t="n">
-        <v>1.489317798614502</v>
+        <v>2.24745911359787</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.99</v>
+        <v>0.4516666666666667</v>
       </c>
       <c r="B32" t="n">
-        <v>1.482790060043335</v>
+        <v>2.275546133518219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.99</v>
+        <v>0.4625</v>
       </c>
       <c r="B33" t="n">
-        <v>1.459758305549621</v>
+        <v>2.218418896198273</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.985</v>
+        <v>0.4470833333333333</v>
       </c>
       <c r="B34" t="n">
-        <v>1.443605151176453</v>
+        <v>2.175068259239197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.985</v>
+        <v>0.4697916666666667</v>
       </c>
       <c r="B35" t="n">
-        <v>1.446066656112671</v>
+        <v>2.158856868743896</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.995</v>
+        <v>0.4822916666666667</v>
       </c>
       <c r="B36" t="n">
-        <v>1.435103883743286</v>
+        <v>2.095291465520859</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.99</v>
+        <v>0.5075000000000001</v>
       </c>
       <c r="B37" t="n">
-        <v>1.425854907035828</v>
+        <v>2.118277132511139</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9925</v>
+        <v>0.4827083333333333</v>
       </c>
       <c r="B38" t="n">
-        <v>1.422442331314087</v>
+        <v>2.114342331886292</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.995</v>
+        <v>0.4875</v>
       </c>
       <c r="B39" t="n">
-        <v>1.427347054481506</v>
+        <v>2.098495304584503</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.995</v>
+        <v>0.4825</v>
       </c>
       <c r="B40" t="n">
-        <v>1.431043300628662</v>
+        <v>2.134754657745361</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.995</v>
+        <v>0.476875</v>
       </c>
       <c r="B41" t="n">
-        <v>1.431357731819153</v>
+        <v>2.129547536373138</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.505</v>
       </c>
       <c r="B42" t="n">
-        <v>1.419353985786438</v>
+        <v>2.051609426736832</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0.5370833333333334</v>
       </c>
       <c r="B43" t="n">
-        <v>1.412909903526306</v>
+        <v>2.034017711877823</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9925</v>
+        <v>0.5491666666666667</v>
       </c>
       <c r="B44" t="n">
-        <v>1.416380157470703</v>
+        <v>1.994625836610794</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.5941666666666666</v>
       </c>
       <c r="B45" t="n">
-        <v>1.417398257255554</v>
+        <v>1.961664259433746</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9925</v>
+        <v>0.5614583333333334</v>
       </c>
       <c r="B46" t="n">
-        <v>1.421262984275818</v>
+        <v>2.032166123390198</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9925</v>
+        <v>0.5764583333333333</v>
       </c>
       <c r="B47" t="n">
-        <v>1.411796493530273</v>
+        <v>1.981807976961136</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.995</v>
+        <v>0.5989583333333334</v>
       </c>
       <c r="B48" t="n">
-        <v>1.437089366912842</v>
+        <v>1.941823422908783</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.6295833333333334</v>
       </c>
       <c r="B49" t="n">
-        <v>1.49293155670166</v>
+        <v>1.920133769512177</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.965</v>
+        <v>0.625625</v>
       </c>
       <c r="B50" t="n">
-        <v>1.526057586669922</v>
+        <v>1.886484950780869</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.99</v>
+        <v>0.6141666666666666</v>
       </c>
       <c r="B51" t="n">
-        <v>1.439680337905884</v>
+        <v>1.884410709142685</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.99</v>
+        <v>0.6141666666666666</v>
       </c>
       <c r="B52" t="n">
-        <v>1.450632839202881</v>
+        <v>1.903668612241745</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.98</v>
+        <v>0.589375</v>
       </c>
       <c r="B53" t="n">
-        <v>1.508317370414734</v>
+        <v>1.962761372327805</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9775</v>
+        <v>0.604375</v>
       </c>
       <c r="B54" t="n">
-        <v>1.454695272445679</v>
+        <v>1.916606366634369</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9825</v>
+        <v>0.6270833333333333</v>
       </c>
       <c r="B55" t="n">
-        <v>1.440270128250122</v>
+        <v>1.893299490213394</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9825</v>
+        <v>0.6545833333333334</v>
       </c>
       <c r="B56" t="n">
-        <v>1.440855374336243</v>
+        <v>1.856601029634476</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.975</v>
+        <v>0.5941666666666666</v>
       </c>
       <c r="B57" t="n">
-        <v>1.446754622459412</v>
+        <v>1.831325769424438</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9825</v>
+        <v>0.5989583333333334</v>
       </c>
       <c r="B58" t="n">
-        <v>1.433761658668518</v>
+        <v>1.870580285787582</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.985</v>
+        <v>0.6395833333333333</v>
       </c>
       <c r="B59" t="n">
-        <v>1.418179697990418</v>
+        <v>1.87399435043335</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.99</v>
+        <v>0.6270833333333334</v>
       </c>
       <c r="B60" t="n">
-        <v>1.403593401908874</v>
+        <v>1.775103151798248</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.99</v>
+        <v>0.6118749999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>1.41749361038208</v>
+        <v>1.812873780727386</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9825</v>
+        <v>0.6118749999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>1.428438200950622</v>
+        <v>1.741402447223663</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9808333333333333</v>
+        <v>0.6395833333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>1.416602864265442</v>
+        <v>1.716666460037231</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9825</v>
+        <v>0.624375</v>
       </c>
       <c r="B64" t="n">
-        <v>1.409487195014954</v>
+        <v>1.725314527750015</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9875</v>
+        <v>0.649375</v>
       </c>
       <c r="B65" t="n">
-        <v>1.420487966537476</v>
+        <v>1.696835339069366</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9875</v>
+        <v>0.651875</v>
       </c>
       <c r="B66" t="n">
-        <v>1.412669229507446</v>
+        <v>1.659337222576141</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9758333333333333</v>
+        <v>0.624375</v>
       </c>
       <c r="B67" t="n">
-        <v>1.438069772720337</v>
+        <v>1.679802268743515</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9733333333333333</v>
+        <v>0.6420833333333333</v>
       </c>
       <c r="B68" t="n">
-        <v>1.42771372795105</v>
+        <v>1.666256546974182</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9708333333333333</v>
+        <v>0.6295833333333334</v>
       </c>
       <c r="B69" t="n">
-        <v>1.409312958717346</v>
+        <v>1.665954202413559</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9783333333333333</v>
+        <v>0.6395833333333334</v>
       </c>
       <c r="B70" t="n">
-        <v>1.405169863700867</v>
+        <v>1.591537535190582</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9858333333333333</v>
+        <v>0.6772916666666666</v>
       </c>
       <c r="B71" t="n">
-        <v>1.401194834709167</v>
+        <v>1.617682695388794</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.9808333333333333</v>
+        <v>0.6870833333333334</v>
       </c>
       <c r="B72" t="n">
-        <v>1.412540988922119</v>
+        <v>1.629046946763992</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9625</v>
+        <v>0.7145833333333333</v>
       </c>
       <c r="B73" t="n">
-        <v>1.462165312767029</v>
+        <v>1.621542125940323</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.985</v>
+        <v>0.6895833333333333</v>
       </c>
       <c r="B74" t="n">
-        <v>1.421124320030212</v>
+        <v>1.597749620676041</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.985</v>
+        <v>0.7025</v>
       </c>
       <c r="B75" t="n">
-        <v>1.411695103645325</v>
+        <v>1.608372360467911</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9875</v>
+        <v>0.6645833333333333</v>
       </c>
       <c r="B76" t="n">
-        <v>1.402608389854431</v>
+        <v>1.589060127735138</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.985</v>
+        <v>0.6997916666666667</v>
       </c>
       <c r="B77" t="n">
-        <v>1.40832001209259</v>
+        <v>1.522634327411652</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.99</v>
+        <v>0.6947916666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>1.403648657798767</v>
+        <v>1.502980381250381</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.985</v>
+        <v>0.7295833333333334</v>
       </c>
       <c r="B79" t="n">
-        <v>1.411763563156128</v>
+        <v>1.507671713829041</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.985</v>
+        <v>0.735</v>
       </c>
       <c r="B80" t="n">
-        <v>1.411557593345642</v>
+        <v>1.476927012205124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.985</v>
+        <v>0.7322916666666666</v>
       </c>
       <c r="B81" t="n">
-        <v>1.428948936462402</v>
+        <v>1.510308176279068</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9925</v>
+        <v>0.7679166666666667</v>
       </c>
       <c r="B82" t="n">
-        <v>1.404614729881287</v>
+        <v>1.513341814279556</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.995</v>
+        <v>0.7427083333333334</v>
       </c>
       <c r="B83" t="n">
-        <v>1.413850889205933</v>
+        <v>1.496690720319748</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.99</v>
+        <v>0.790625</v>
       </c>
       <c r="B84" t="n">
-        <v>1.414717288017273</v>
+        <v>1.421278476715088</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.99</v>
+        <v>0.7754166666666666</v>
       </c>
       <c r="B85" t="n">
-        <v>1.405986528396606</v>
+        <v>1.469884932041168</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.9708333333333333</v>
+        <v>0.8158333333333334</v>
       </c>
       <c r="B86" t="n">
-        <v>1.420867791175842</v>
+        <v>1.400230526924133</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9783333333333333</v>
+        <v>0.8235416666666666</v>
       </c>
       <c r="B87" t="n">
-        <v>1.404191179275513</v>
+        <v>1.427207142114639</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9825</v>
+        <v>0.8564583333333334</v>
       </c>
       <c r="B88" t="n">
-        <v>1.402095408439636</v>
+        <v>1.40898722410202</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9825</v>
+        <v>0.8922916666666666</v>
       </c>
       <c r="B89" t="n">
-        <v>1.421950840950012</v>
+        <v>1.374657720327377</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.99</v>
+        <v>0.8664583333333333</v>
       </c>
       <c r="B90" t="n">
-        <v>1.400409178733826</v>
+        <v>1.454483777284622</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.985</v>
+        <v>0.8489583333333334</v>
       </c>
       <c r="B91" t="n">
-        <v>1.40261736869812</v>
+        <v>1.383711785078049</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.985</v>
+        <v>0.83375</v>
       </c>
       <c r="B92" t="n">
-        <v>1.401070365905762</v>
+        <v>1.333632409572601</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9875</v>
+        <v>0.9370833333333334</v>
       </c>
       <c r="B93" t="n">
-        <v>1.40192186832428</v>
+        <v>1.33827206492424</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9925</v>
+        <v>0.8766666666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>1.406398091316223</v>
+        <v>1.319891095161438</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9875</v>
+        <v>0.886875</v>
       </c>
       <c r="B95" t="n">
-        <v>1.399413304328919</v>
+        <v>1.310114145278931</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9875</v>
+        <v>0.8939583333333334</v>
       </c>
       <c r="B96" t="n">
-        <v>1.402456483840942</v>
+        <v>1.285317480564117</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.9875</v>
+        <v>0.8897916666666666</v>
       </c>
       <c r="B97" t="n">
-        <v>1.399723553657532</v>
+        <v>1.308663934469223</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.9925</v>
+        <v>0.9064583333333334</v>
       </c>
       <c r="B98" t="n">
-        <v>1.400794229507446</v>
+        <v>1.275163173675537</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.99</v>
+        <v>0.8766666666666666</v>
       </c>
       <c r="B99" t="n">
-        <v>1.396734485626221</v>
+        <v>1.251508086919785</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.99</v>
+        <v>0.9247916666666667</v>
       </c>
       <c r="B100" t="n">
-        <v>1.396567134857178</v>
+        <v>1.24045318365097</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9875</v>
+        <v>0.9270833333333334</v>
       </c>
       <c r="B101" t="n">
-        <v>1.407251772880554</v>
+        <v>1.21586748957634</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9272916666666666</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.201120555400848</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.884375</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.33449649810791</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.725625</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2.073766231536865</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.7035416666666666</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2.020147323608398</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.7977083333333334</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.827353000640869</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.8614583333333333</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.517282426357269</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.8664583333333333</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.366835057735443</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9447916666666667</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.247916102409363</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9141666666666667</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.203318178653717</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.196169674396515</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9297916666666667</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.2045578956604</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.911875</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.228733956813812</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9314583333333334</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.161401480436325</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9522916666666666</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.160497784614563</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9368749999999999</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.179592102766037</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9366666666666666</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.135497778654099</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9516666666666665</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.096316695213318</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.954375</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.122105985879898</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9520833333333334</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.096804141998291</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.067093849182129</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9541666666666666</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.060185238718987</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.118030697107315</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.046144634485245</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.076362580060959</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.941875</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.065601289272308</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.021066561341286</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.033460929989815</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.037464663386345</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9797916666666666</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.027563095092773</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.00262975692749</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9872916666666666</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.9930662214756012</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9612658023834229</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9924999999999999</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.961143359541893</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.9687815308570862</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.9708853363990784</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.9684599190950394</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.9842976927757263</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.9837027788162231</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9722916666666667</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.9638870656490326</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9924999999999999</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9429034143686295</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9924999999999999</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.935056060552597</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.9252837747335434</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9897916666666666</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9361188858747482</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9824999999999999</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9125117361545563</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9922916666666667</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9286146610975266</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.8902754336595535</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9002088159322739</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9033105820417404</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.8785217553377151</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.8663622885942459</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9037192910909653</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.8912145048379898</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.8560911417007446</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.8560555279254913</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.8572638183832169</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.8486768454313278</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>1</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.87053582072258</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.8580152839422226</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.840144619345665</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.8597155213356018</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.8306505680084229</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>1</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.8374362587928772</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9975000000000001</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.827489823102951</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>1</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.816791296005249</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>1</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.8441266864538193</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>1</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.8033205270767212</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>1</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.8098132312297821</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>1</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.8306959122419357</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.8670484572649002</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>1</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.8153389096260071</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>1</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.7921388745307922</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>1</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.8032966256141663</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>1</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.8048956990242004</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>1</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7910577952861786</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>1</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7888036221265793</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>1</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.8134184330701828</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>1</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.8016837537288666</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>1</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7977461665868759</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>1</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7878548949956894</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>1</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7907503396272659</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>1</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7770267575979233</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>1</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.8014178574085236</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>1</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.8038403242826462</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>1</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7933938503265381</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>1</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7723095715045929</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>1</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7727642059326172</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>1</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7823711633682251</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>1</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.771242767572403</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>1</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7718526870012283</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>1</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7592556029558182</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7598100751638412</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>1</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.7645374983549118</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>1</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7786669284105301</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>1</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7682864964008331</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>1</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7613639086484909</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>1</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7635340541601181</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>1</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7747735977172852</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>1</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7588069587945938</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>1</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7601434141397476</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>1</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7614580690860748</v>
       </c>
     </row>
   </sheetData>
